--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1642119.645156996</v>
+        <v>1714467.857012078</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13234149.48931498</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1952556.475735385</v>
+        <v>612367.9462114753</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6686725.496545907</v>
+        <v>7120036.23818848</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>325.5677545680018</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -677,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>273.437111926166</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>125.7060149586009</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>4.151527210158674</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>89.47820129641138</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>335.8891107890323</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1066,10 +1068,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>23.68504153343219</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>181.7546420751439</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1145,10 +1147,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>244.3987381209107</v>
       </c>
       <c r="H8" t="n">
-        <v>237.1359214906315</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1187,16 +1189,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1297,13 +1299,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>117.8204698842985</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1348,7 +1350,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>4.250061189173434</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1388,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>90.69710529850407</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1540,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>99.57650149812427</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1607,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>371.2208167352533</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>57.02643368806866</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>92.05871292885847</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1828,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>97.60112162899995</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2062,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>19.85902767342632</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2093,7 +2095,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>130.040089848451</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>87.61148459229719</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>137.3037264485918</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2488,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2536,10 +2538,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>74.07475062513896</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>50.75755770605702</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2728,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.1065599688926</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.9073134702962</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2998,10 +3000,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3013,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>141.4251020395619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,22 +3189,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170415</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>46.55787317295461</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3250,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.1612423902099</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3664,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>108.3554797687793</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3676,7 +3678,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>25.13775189891313</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3749,16 +3751,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>157.4766783450882</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3898,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>127.0157419032329</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3916,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712396</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,19 +3948,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>207.8300332742726</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>389.3729667519927</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>141.1885448588004</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>762.0285388500116</v>
+        <v>1230.082836572064</v>
       </c>
       <c r="C2" t="n">
-        <v>739.1682129037158</v>
+        <v>803.1821065853638</v>
       </c>
       <c r="D2" t="n">
-        <v>719.9159961291201</v>
+        <v>783.9298898107681</v>
       </c>
       <c r="E2" t="n">
-        <v>391.0596783836638</v>
+        <v>761.9933539990298</v>
       </c>
       <c r="F2" t="n">
-        <v>369.9759006134681</v>
+        <v>336.86917218843</v>
       </c>
       <c r="G2" t="n">
-        <v>369.6772422433207</v>
+        <v>336.5705138182826</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>399.5154512777223</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="M2" t="n">
-        <v>856.3013579804531</v>
+        <v>882.5260259873578</v>
       </c>
       <c r="N2" t="n">
-        <v>1313.087264683184</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="O2" t="n">
-        <v>1313.087264683184</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="P2" t="n">
-        <v>1313.087264683184</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1587.244713637749</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V2" t="n">
-        <v>1587.244713637749</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="W2" t="n">
-        <v>1190.853363938096</v>
+        <v>1658.907661660148</v>
       </c>
       <c r="X2" t="n">
-        <v>779.1333651058433</v>
+        <v>1651.228066868299</v>
       </c>
       <c r="Y2" t="n">
-        <v>777.8364991011376</v>
+        <v>1649.931200863594</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.5426250668169</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843216</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.1967630996066</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725438</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.848999055448</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.795227273052</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353616</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>133.8657769972735</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>133.8657769972735</v>
       </c>
       <c r="K3" t="n">
-        <v>44.35863542273854</v>
+        <v>612.8047012397017</v>
       </c>
       <c r="L3" t="n">
-        <v>44.35863542273854</v>
+        <v>1091.74362548213</v>
       </c>
       <c r="M3" t="n">
-        <v>501.1445421254694</v>
+        <v>1091.74362548213</v>
       </c>
       <c r="N3" t="n">
-        <v>957.9304488282003</v>
+        <v>1091.74362548213</v>
       </c>
       <c r="O3" t="n">
-        <v>1306.794406253903</v>
+        <v>1570.682549724558</v>
       </c>
       <c r="P3" t="n">
-        <v>1306.794406253903</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177126</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474804</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.134385394441</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533707</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366924</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335872</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868796</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>840.1872780457202</v>
+        <v>686.825353562517</v>
       </c>
       <c r="C4" t="n">
-        <v>668.2147149246362</v>
+        <v>686.825353562517</v>
       </c>
       <c r="D4" t="n">
-        <v>668.2147149246362</v>
+        <v>686.825353562517</v>
       </c>
       <c r="E4" t="n">
-        <v>502.0065090774897</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="F4" t="n">
-        <v>330.1447348520501</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8877651462822</v>
+        <v>182.498403784163</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1050.508770002638</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1428.000280878674</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303045</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="T4" t="n">
-        <v>1628.425962247645</v>
+        <v>1717.93310382218</v>
       </c>
       <c r="U4" t="n">
-        <v>1348.241513747949</v>
+        <v>1437.748655322484</v>
       </c>
       <c r="V4" t="n">
-        <v>1066.530046355978</v>
+        <v>1156.037187930513</v>
       </c>
       <c r="W4" t="n">
-        <v>1066.530046355978</v>
+        <v>881.1847841030258</v>
       </c>
       <c r="X4" t="n">
-        <v>1066.530046355978</v>
+        <v>876.9913222745827</v>
       </c>
       <c r="Y4" t="n">
-        <v>840.1872780457202</v>
+        <v>876.9913222745827</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>638.1652587604842</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C5" t="n">
-        <v>615.3049328141884</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D5" t="n">
-        <v>192.0123119991887</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E5" t="n">
-        <v>170.0757761874503</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
-        <v>2059.098288819458</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
         <v>2224.911252462377</v>
@@ -4595,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V5" t="n">
-        <v>1867.421837588626</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W5" t="n">
-        <v>1471.030487888973</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X5" t="n">
-        <v>1463.350893097124</v>
+        <v>1657.024156625229</v>
       </c>
       <c r="Y5" t="n">
-        <v>1058.013623052014</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4649,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>287.7093087981016</v>
+        <v>119.1699405917395</v>
       </c>
       <c r="L6" t="n">
-        <v>287.7093087981016</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M6" t="n">
-        <v>838.3748437825398</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.1145108219148</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="C7" t="n">
-        <v>712.1419477008308</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="D7" t="n">
-        <v>548.8251748276015</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="E7" t="n">
-        <v>382.616968980455</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7551947550154</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
         <v>44.49822504924753</v>
@@ -4726,7 +4728,7 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
         <v>683.2064757736641</v>
@@ -4759,16 +4761,16 @@
         <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1484.213795394889</v>
+        <v>1460.289511017685</v>
       </c>
       <c r="W7" t="n">
-        <v>1484.213795394889</v>
+        <v>1185.437107190198</v>
       </c>
       <c r="X7" t="n">
-        <v>1300.623247844238</v>
+        <v>942.8732106360028</v>
       </c>
       <c r="Y7" t="n">
-        <v>1074.28047953398</v>
+        <v>716.5304423257448</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.398248848074</v>
+        <v>1113.304147418315</v>
       </c>
       <c r="C8" t="n">
-        <v>381.4975188613741</v>
+        <v>686.4034174316155</v>
       </c>
       <c r="D8" t="n">
-        <v>362.2453020867785</v>
+        <v>667.1512006570198</v>
       </c>
       <c r="E8" t="n">
-        <v>340.3087662750401</v>
+        <v>645.2146648452814</v>
       </c>
       <c r="F8" t="n">
-        <v>319.2249885048444</v>
+        <v>624.1308870750856</v>
       </c>
       <c r="G8" t="n">
-        <v>318.926330134697</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
         <v>79.39509630577632</v>
@@ -4805,22 +4807,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>549.9383681074144</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091853</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4835,19 +4837,19 @@
         <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1641.263477976562</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1641.263477976562</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>1641.263477976562</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X8" t="n">
-        <v>1229.54347914431</v>
+        <v>1534.449377714551</v>
       </c>
       <c r="Y8" t="n">
-        <v>824.2062090992</v>
+        <v>1129.112107669441</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C9" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J9" t="n">
-        <v>201.1892506764427</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="K9" t="n">
-        <v>201.1892506764427</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="L9" t="n">
-        <v>201.1892506764427</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M9" t="n">
-        <v>201.1892506764427</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R9" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S9" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T9" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U9" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V9" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W9" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X9" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y9" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>545.9957668907073</v>
+        <v>546.0445307493287</v>
       </c>
       <c r="C10" t="n">
-        <v>374.0232037696233</v>
+        <v>374.0719676282447</v>
       </c>
       <c r="D10" t="n">
-        <v>210.706430896394</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924753</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
         <v>44.49822504924753</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2058.862063508843</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1815.522715734743</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1535.338267235047</v>
       </c>
       <c r="V10" t="n">
-        <v>1479.920804294713</v>
+        <v>1253.626799843076</v>
       </c>
       <c r="W10" t="n">
-        <v>1205.068400467226</v>
+        <v>978.7743960155893</v>
       </c>
       <c r="X10" t="n">
-        <v>962.5045039130309</v>
+        <v>736.2104994613944</v>
       </c>
       <c r="Y10" t="n">
-        <v>736.161735602773</v>
+        <v>736.2104994613944</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2471.097268910215</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2044.196538923515</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1620.903918108515</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.926978256373</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>769.8027964457732</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>365.4637340352218</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>67.59535550925668</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>430.1988143261522</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>430.1988143261522</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L11" t="n">
-        <v>1266.691338753204</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M11" t="n">
-        <v>2103.183863180255</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N11" t="n">
-        <v>2939.676387607306</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3262.211440580931</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3262.211440580931</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3262.211440580931</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3379.767775462834</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3379.767775462834</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3379.767775462834</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3288.154537787577</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3288.154537787577</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3288.154537787577</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2876.434538955325</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2471.097268910215</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>634.7188465407119</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>517.2129430582166</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>413.3729845735017</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>308.6710508464389</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>215.0252205293431</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>120.9714487469471</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>67.59535550925668</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>339.2928447888478</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>339.2928447888478</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L12" t="n">
-        <v>339.2928447888478</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="M12" t="n">
-        <v>339.2928447888478</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="N12" t="n">
-        <v>1175.785369215899</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O12" t="n">
-        <v>1876.282986089766</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P12" t="n">
-        <v>1876.282986089766</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1876.282986089766</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1876.282986089766</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1794.958738651021</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1653.078802948699</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1468.310606868336</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1263.337468007602</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1066.816090840819</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>903.3387446074822</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>763.6458559607746</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1150.776478033494</v>
+        <v>919.4582979645735</v>
       </c>
       <c r="C13" t="n">
-        <v>978.8039149124095</v>
+        <v>747.4857348434895</v>
       </c>
       <c r="D13" t="n">
-        <v>815.4871420391802</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E13" t="n">
-        <v>649.2789361920337</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F13" t="n">
-        <v>477.4171619665942</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G13" t="n">
-        <v>311.1601922608263</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>167.3639237689807</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>125.0866837334147</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>351.6142849392519</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>706.3036062336727</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1097.489401203924</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1474.980912079959</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.409040759722</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2121.008252681623</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2248.008382922385</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2200.969769609558</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2200.969769609558</v>
+        <v>2135.09480276055</v>
       </c>
       <c r="T13" t="n">
-        <v>2200.969769609558</v>
+        <v>2135.09480276055</v>
       </c>
       <c r="U13" t="n">
-        <v>2200.969769609558</v>
+        <v>2135.09480276055</v>
       </c>
       <c r="V13" t="n">
-        <v>2084.701515437499</v>
+        <v>1853.383335368579</v>
       </c>
       <c r="W13" t="n">
-        <v>1809.849111610012</v>
+        <v>1578.530931541092</v>
       </c>
       <c r="X13" t="n">
-        <v>1567.285215055817</v>
+        <v>1335.967034986897</v>
       </c>
       <c r="Y13" t="n">
-        <v>1340.942446745559</v>
+        <v>1109.624266676639</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2173.22889038425</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1746.32816039755</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1323.03553958255</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>897.0585997304079</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9344179198081</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>67.59535550925668</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>67.59535550925668</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>67.59535550925668</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>783.1036634847558</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1619.596187911807</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M14" t="n">
-        <v>1717.439636995952</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N14" t="n">
-        <v>1717.439636995952</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>2553.932161423003</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3262.211440580931</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3262.211440580931</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3379.767775462834</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3379.767775462834</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3379.767775462834</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3379.767775462834</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3379.767775462834</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3379.767775462834</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2968.047776630581</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2593.07725467578</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>634.7188465407119</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>517.2129430582166</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>413.3729845735017</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>308.6710508464389</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>215.0252205293431</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>120.9714487469471</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>75.04199847116851</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>346.7394877507596</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>346.7394877507596</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L15" t="n">
-        <v>346.7394877507596</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M15" t="n">
-        <v>1183.232012177811</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N15" t="n">
-        <v>1412.137509226987</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1412.137509226987</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1412.137509226987</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1876.282986089766</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1876.282986089766</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1794.958738651021</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1653.078802948699</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1468.310606868336</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1263.337468007602</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1066.816090840819</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>903.3387446074822</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>763.6458559607746</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>884.7509400680017</v>
+        <v>756.1415250913442</v>
       </c>
       <c r="C16" t="n">
-        <v>712.7783769469177</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="D16" t="n">
-        <v>549.4616040736884</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E16" t="n">
-        <v>383.2533982265419</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F16" t="n">
-        <v>211.3916240011023</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G16" t="n">
-        <v>211.3916240011023</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>67.59535550925668</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>125.0866837334147</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>351.6142849392519</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>706.3036062336727</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1097.489401203924</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1474.980912079959</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1830.409040759722</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2121.008252681623</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2248.008382922385</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2248.008382922385</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2190.405924651609</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2190.405924651609</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1910.221476151913</v>
+        <v>1729.214133333126</v>
       </c>
       <c r="V16" t="n">
-        <v>1628.510008759941</v>
+        <v>1447.502665941155</v>
       </c>
       <c r="W16" t="n">
-        <v>1353.657604932454</v>
+        <v>1172.650262113668</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.09370837826</v>
+        <v>1172.650262113668</v>
       </c>
       <c r="Y16" t="n">
-        <v>884.7509400680017</v>
+        <v>946.3074938034099</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,25 +5518,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N17" t="n">
-        <v>3114.325629236558</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O17" t="n">
-        <v>3959.47027938737</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4667.749558545297</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5549,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5594,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M18" t="n">
-        <v>374.0002026854196</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N18" t="n">
-        <v>1463.315149158289</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.68756743822</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C19" t="n">
-        <v>869.7150043171358</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D19" t="n">
-        <v>706.3982314439065</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E19" t="n">
-        <v>540.1900255967601</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>200.8897049502729</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2002.531292319261</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.81982492729</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1700.760201014738</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1458.196304460543</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1231.853536150285</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
         <v>435.0679631883225</v>
@@ -5753,25 +5755,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O20" t="n">
-        <v>3857.609571081677</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4565.888850239604</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5795,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M21" t="n">
-        <v>1021.509065974867</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3401.365604982158</v>
+        <v>878.3707945649905</v>
       </c>
       <c r="C22" t="n">
-        <v>3229.393041861074</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D22" t="n">
-        <v>3066.076268987845</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E22" t="n">
-        <v>3066.076268987845</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878299</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>1903.841330648901</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831969</v>
+        <v>1622.12986325693</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004482</v>
+        <v>1347.277459429443</v>
       </c>
       <c r="X22" t="n">
-        <v>3817.874342004482</v>
+        <v>1104.713562875248</v>
       </c>
       <c r="Y22" t="n">
-        <v>3591.531573694224</v>
+        <v>878.3707945649905</v>
       </c>
     </row>
     <row r="23">
@@ -6069,19 +6071,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1748.774177950213</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.774177950213</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>722.8595947466156</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C25" t="n">
-        <v>584.1689619702602</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D25" t="n">
-        <v>584.1689619702602</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E25" t="n">
-        <v>417.9607561231137</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F25" t="n">
-        <v>246.0989818976742</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U25" t="n">
-        <v>1712.153331232334</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.441863840363</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W25" t="n">
-        <v>1155.589460012876</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="X25" t="n">
-        <v>913.0255634586812</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="Y25" t="n">
-        <v>913.0255634586812</v>
+        <v>4017.903765402536</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C27" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D27" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E27" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F27" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G27" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>4362.434577686964</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S27" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T27" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U27" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V27" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W27" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X27" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y27" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784958</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574118</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841825</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2126.042447921086</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1882.703100146985</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.703100146985</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1600.991632755014</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1600.991632755014</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X28" t="n">
-        <v>1358.427736200819</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.084967890562</v>
+        <v>1064.78153311813</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1013.511272808982</v>
+        <v>985.454412532011</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D31" t="n">
         <v>850.1944999357522</v>
@@ -6646,25 +6648,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1955.492679006434</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1673.781211614463</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.928807786976</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1156.364911232781</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y31" t="n">
-        <v>1013.511272808982</v>
+        <v>985.454412532011</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6703,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6786,7 +6788,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1019.275630082919</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C34" t="n">
-        <v>847.303066961835</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="D34" t="n">
-        <v>683.9862940886057</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.687586098801</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T34" t="n">
-        <v>1992.348238324701</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U34" t="n">
-        <v>1992.348238324701</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V34" t="n">
-        <v>1710.63677093273</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W34" t="n">
-        <v>1435.784367105243</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X34" t="n">
-        <v>1435.784367105243</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y34" t="n">
-        <v>1209.441598794985</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,55 +6925,55 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>207.5440612468773</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>923.0523692223763</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1852.677416841653</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2856.963518260711</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3833.214576747412</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747412</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.49385590534</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
         <v>3777.607131232208</v>
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7017,22 +7019,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>730.647150085061</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>609.4538236255814</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>437.4812605044974</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7120,25 +7122,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>985.454412532011</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>759.1116442217531</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,58 +7162,58 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.49385590534</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.49385590534</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409523</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
@@ -7242,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7257,22 +7259,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>939.1015214887346</v>
+        <v>105.4776804749704</v>
       </c>
       <c r="N39" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O39" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1131.61704262126</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C40" t="n">
-        <v>959.6444795001755</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D40" t="n">
-        <v>850.194499935752</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886055</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631659</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573981</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655525</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>2065.542080025265</v>
+        <v>2257.324072234196</v>
       </c>
       <c r="V40" t="n">
-        <v>2065.542080025265</v>
+        <v>1975.612604842225</v>
       </c>
       <c r="W40" t="n">
-        <v>1790.689676197778</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X40" t="n">
-        <v>1548.125779643583</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y40" t="n">
-        <v>1321.783011333325</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1641.634024689064</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1214.733294702364</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>791.4406738873643</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>365.4637340352218</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>365.4637340352218</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
-        <v>365.4637340352218</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>67.59535550925665</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>67.59535550925665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>67.59535550925665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>67.59535550925665</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>752.7338672997762</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>1589.226391726827</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>2425.718916153878</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O41" t="n">
-        <v>3262.211440580929</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P41" t="n">
-        <v>3262.211440580929</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q41" t="n">
-        <v>3262.211440580929</v>
+        <v>5029.203358561359</v>
       </c>
       <c r="R41" t="n">
-        <v>3379.767775462832</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3379.767775462832</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3379.767775462832</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3379.767775462832</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3022.278360589082</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2625.887010889429</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2466.819659025703</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2061.482388980594</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>634.7188465407119</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>517.2129430582166</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>413.3729845735017</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>308.6710508464389</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>215.0252205293431</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>120.9714487469471</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>67.59535550925665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>67.59535550925665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>67.59535550925665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>67.59535550925665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>203.2979372356644</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>203.2979372356644</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>1039.790461662715</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O42" t="n">
-        <v>1876.282986089766</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1876.282986089766</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1876.282986089766</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1876.282986089766</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1794.958738651021</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1653.078802948699</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1468.310606868336</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1263.337468007602</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1066.816090840819</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>903.3387446074822</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>763.6458559607746</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1051.007909773769</v>
+        <v>812.2850232837875</v>
       </c>
       <c r="C43" t="n">
-        <v>879.0353466526855</v>
+        <v>812.2850232837875</v>
       </c>
       <c r="D43" t="n">
-        <v>715.7185737794562</v>
+        <v>812.2850232837875</v>
       </c>
       <c r="E43" t="n">
-        <v>549.5103679323097</v>
+        <v>683.9862940886028</v>
       </c>
       <c r="F43" t="n">
-        <v>377.6485937068701</v>
+        <v>512.1245198631632</v>
       </c>
       <c r="G43" t="n">
-        <v>211.3916240011023</v>
+        <v>345.8675501573953</v>
       </c>
       <c r="H43" t="n">
-        <v>67.59535550925665</v>
+        <v>202.0712816655497</v>
       </c>
       <c r="I43" t="n">
-        <v>67.59535550925665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>125.0866837334147</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>351.6142849392519</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>706.3036062336727</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1097.489401203924</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1474.980912079959</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1830.409040759722</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2121.008252681623</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2248.008382922385</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2200.969769609558</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2200.969769609558</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1957.630421835458</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U43" t="n">
-        <v>1677.445973335762</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V43" t="n">
-        <v>1467.516646796093</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W43" t="n">
-        <v>1467.516646796093</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X43" t="n">
-        <v>1467.516646796093</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="Y43" t="n">
-        <v>1241.173878485835</v>
+        <v>1002.450991995853</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1803.786699230227</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1376.885969243527</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>953.5933484285276</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>527.6164085763852</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>102.4922267657854</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>102.4922267657854</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>102.4922267657854</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I44" t="n">
-        <v>67.59535550925665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>430.1988143261522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>430.1988143261522</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L44" t="n">
-        <v>430.1988143261522</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M44" t="n">
-        <v>1266.691338753203</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N44" t="n">
-        <v>2103.183863180254</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>2103.183863180254</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>2811.463142338182</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3262.211440580929</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3379.767775462832</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3379.767775462832</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3379.767775462832</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3379.767775462832</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3022.278360589082</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3022.278360589082</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2628.972333566867</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2223.635063521757</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>634.7188465407119</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>517.2129430582166</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>413.3729845735017</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>308.6710508464389</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>215.0252205293431</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>120.9714487469471</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>67.59535550925665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>75.04199847116848</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>346.7394877507596</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K45" t="n">
-        <v>346.7394877507596</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L45" t="n">
-        <v>346.7394877507596</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M45" t="n">
-        <v>1183.23201217781</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N45" t="n">
-        <v>1330.118199142284</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O45" t="n">
-        <v>1330.118199142284</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P45" t="n">
-        <v>1330.118199142284</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1794.263676005063</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1876.282986089766</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1794.958738651021</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1653.078802948699</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1468.310606868336</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1263.337468007602</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1066.816090840819</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>903.3387446074822</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>763.6458559607746</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>481.8403897709862</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>339.2256979944202</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>339.2256979944202</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>339.2256979944202</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>167.3639237689807</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3639237689807</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>167.3639237689807</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>67.59535550925665</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>125.0866837334147</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>351.6142849392519</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>706.3036062336727</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1097.489401203924</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1474.980912079959</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1830.409040759722</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2121.008252681623</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2248.008382922385</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2200.969769609558</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2030.834722128693</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1787.495374354593</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1507.310925854897</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1225.599458462926</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>950.7470546354391</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>708.1831580812442</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>481.8403897709862</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7984,13 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865908</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>39.73581606682243</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>521.0563139884139</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
@@ -7997,7 +7999,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>455.2721730654569</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8058,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873012</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681974</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>375.55972550576</v>
+        <v>506.9485808761901</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>389.8761087718121</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8143,19 +8145,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>401.2507195050165</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>157.3211482065608</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P5" t="n">
-        <v>205.0632038737858</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8295,28 +8297,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>260.5451336181234</v>
+        <v>90.30334755109108</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,10 +8376,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8453,7 +8455,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
@@ -8462,7 +8464,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>181.5591018660332</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
@@ -8471,7 +8473,7 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3630160154378</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>180.788849974023</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
@@ -8547,7 +8549,7 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L11" t="n">
-        <v>883.2539862983314</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>882.3732067651403</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>882.2215667001545</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>363.1839421576652</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>860.6367023934448</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>866.2849720792501</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>730.7452400998658</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>883.2539862983314</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M14" t="n">
-        <v>136.2630296510932</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>882.3329032217325</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
@@ -9012,10 +9014,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>868.0387243780365</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>252.560702000588</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9024,7 +9026,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9164,7 +9166,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9173,19 +9175,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>618.9086683272931</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,22 +9242,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>355.138624957478</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>475.3690562152009</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9401,7 +9403,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>129.8669649843445</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9419,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>375.8994699623531</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9717,22 +9719,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>187.0266028900253</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10124,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>859.128966425699</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10434,10 +10436,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>135.7243512442217</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10598,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10665,25 +10667,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>61.33870991727026</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10835,13 +10837,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>859.1289664256972</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10905,25 +10907,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>26.3038179559056</v>
       </c>
       <c r="N39" t="n">
-        <v>920.2011215599057</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>730.3711452513295</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>882.3732067651398</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>882.2215667001541</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>882.3329032217321</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>121.8329647736533</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>159.588401589389</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>866.2849720792497</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>868.1138335879302</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>129.8669649843445</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>882.3732067651398</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>882.2215667001541</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>491.4259859609089</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,16 +11384,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>868.038724378036</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>169.712914036242</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>165.0742550110477</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>68.85719550793222</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -23473,7 +23475,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>30.06308060940523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>111.4072633179878</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>185.3238910858403</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.169760948126836</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>252.2448521157858</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>40.1030666347342</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>189.7711194224016</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>32.9491110412813</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>166.063506963514</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>119.4952797838161</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>13.32713703716391</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24840,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>36.34552401957694</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.65423858759348</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.18544517283162</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>121.8758238331019</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.10306663473509</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>53.3281253757177</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>252.2448521157856</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>250.126120498842</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>37.53038188544213</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>71.06431944377877</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>18.22983209193745</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>29.06429263107279</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26041,7 +26043,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>599221.5517412567</v>
+        <v>600598.4428124353</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>471996.6562849522</v>
+        <v>619825.5633684793</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>471996.6562849523</v>
+        <v>619825.5633684793</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619825.5633684794</v>
+        <v>619825.5633684791</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619825.5633684793</v>
+        <v>619825.5633684791</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>619825.5633684793</v>
+        <v>619825.5633684791</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>619825.5633684793</v>
+        <v>619825.5633684791</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619825.5633684793</v>
+        <v>619825.5633684794</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>471996.6562849521</v>
+        <v>619825.5633684794</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>471996.6562849521</v>
+        <v>619825.5633684793</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>465954.1344089305</v>
+        <v>465954.1344089303</v>
       </c>
       <c r="C2" t="n">
         <v>465954.1344089304</v>
       </c>
       <c r="D2" t="n">
-        <v>465954.1344089305</v>
+        <v>465954.1344089304</v>
       </c>
       <c r="E2" t="n">
-        <v>342409.2401480449</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="F2" t="n">
-        <v>342409.240148045</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="G2" t="n">
+        <v>449624.3225099581</v>
+      </c>
+      <c r="H2" t="n">
         <v>449624.3225099579</v>
       </c>
-      <c r="H2" t="n">
-        <v>449624.3225099578</v>
-      </c>
       <c r="I2" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="J2" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="K2" t="n">
         <v>449624.322509958</v>
@@ -26344,16 +26346,16 @@
         <v>449624.3225099579</v>
       </c>
       <c r="M2" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.322509958</v>
       </c>
       <c r="N2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="O2" t="n">
-        <v>342409.2401480449</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="P2" t="n">
-        <v>342409.2401480449</v>
+        <v>449624.3225099579</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>30636.11708120827</v>
+        <v>23406.83367361226</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>86203.68773110765</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118909.5773635238</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>24405.66886020853</v>
+        <v>18646.60035701983</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71948.71623945139</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207111.2789421974</v>
+        <v>203366.9722795535</v>
       </c>
       <c r="C4" t="n">
-        <v>191243.7287526203</v>
+        <v>191243.7287526202</v>
       </c>
       <c r="D4" t="n">
         <v>191243.7287526203</v>
       </c>
       <c r="E4" t="n">
-        <v>65980.63390130432</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="F4" t="n">
-        <v>65980.63390130432</v>
+        <v>86696.74064784778</v>
       </c>
       <c r="G4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="H4" t="n">
-        <v>86696.74064784774</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="I4" t="n">
         <v>86696.74064784776</v>
@@ -26448,16 +26450,16 @@
         <v>86696.74064784778</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784775</v>
+        <v>86696.74064784779</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784774</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="O4" t="n">
-        <v>65980.63390130429</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="P4" t="n">
-        <v>65980.6339013043</v>
+        <v>86696.74064784776</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>51372.47018703508</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>51372.47018703508</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>51372.47018703505</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>51372.47018703505</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42536.42057838428</v>
+        <v>37421.24323762432</v>
       </c>
       <c r="C6" t="n">
-        <v>176628.0375376737</v>
+        <v>183857.3209452698</v>
       </c>
       <c r="D6" t="n">
-        <v>207264.1546188821</v>
+        <v>207264.154618882</v>
       </c>
       <c r="E6" t="n">
-        <v>138852.4483285979</v>
+        <v>69438.16311703973</v>
       </c>
       <c r="F6" t="n">
-        <v>225056.1360597056</v>
+        <v>285177.5196736804</v>
       </c>
       <c r="G6" t="n">
-        <v>166267.9423101566</v>
+        <v>285177.5196736806</v>
       </c>
       <c r="H6" t="n">
         <v>285177.5196736804</v>
@@ -26543,25 +26545,25 @@
         <v>285177.5196736804</v>
       </c>
       <c r="J6" t="n">
-        <v>164455.0027309235</v>
+        <v>158600.2510933917</v>
       </c>
       <c r="K6" t="n">
-        <v>260771.850813472</v>
+        <v>266530.9193166607</v>
       </c>
       <c r="L6" t="n">
         <v>285177.5196736805</v>
       </c>
       <c r="M6" t="n">
-        <v>213228.803434229</v>
+        <v>105113.6482185128</v>
       </c>
       <c r="N6" t="n">
+        <v>285177.5196736804</v>
+      </c>
+      <c r="O6" t="n">
         <v>285177.5196736805</v>
       </c>
-      <c r="O6" t="n">
-        <v>225056.1360597056</v>
-      </c>
       <c r="P6" t="n">
-        <v>225056.1360597056</v>
+        <v>285177.5196736805</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>844.9419438657085</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>844.9419438657085</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>844.941943865708</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>844.941943865708</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>94.82790735525992</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>288.7141307501144</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.8419737071483</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>94.82790735525992</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>288.7141307501139</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>94.82790735525992</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>288.7141307501144</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.8419737071483</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>96.14941588561925</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>118.9903242764906</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.65229084832623</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>235.9867303784943</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>331.3947386960824</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>18.02540993598075</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27831,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>255.2093111846192</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>58.38361551350903</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27865,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>155.8969336655352</v>
       </c>
       <c r="H8" t="n">
-        <v>57.75377325007403</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>50.61322712175794</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>274.6442915288779</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -34702,13 +34704,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>2.304553167390613</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34717,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>419.1474984608589</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>352.3878357835378</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>368.1052675669834</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,19 +34865,19 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>378.6752796135307</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>134.9403475485744</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P5" t="n">
-        <v>167.4878420635545</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>238.1458997847901</v>
+        <v>67.90411371775774</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,10 +35096,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35173,7 +35175,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,7 +35184,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>144.2794790315872</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
@@ -35191,7 +35193,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>150.7519016821044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>158.2737632597934</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
@@ -35267,7 +35269,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L11" t="n">
-        <v>844.9419438657085</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>844.9419438657085</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>844.9419438657085</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>325.7929828016411</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>838.1216156792152</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>844.9419438657085</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>707.5733503776436</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>844.9419438657085</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M14" t="n">
-        <v>98.83176675166143</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>844.9419438657085</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
@@ -35732,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>844.9419438657085</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>231.2176737870464</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35893,19 +35895,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>581.517708971269</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>452.1971664929787</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36139,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>163.8547131678031</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36844,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>821.7380070696748</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>106.3043917586351</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37318,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>38.24192940494229</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37555,13 +37557,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>821.738007069673</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>3.207037443577619</v>
       </c>
       <c r="N39" t="n">
-        <v>898.8580933463641</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>692.0591028187066</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>844.941943865708</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>844.941943865708</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>844.941943865708</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>137.0733148751594</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>844.941943865708</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>844.941943865708</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>844.941943865708</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>844.941943865708</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>455.3013113563109</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>844.941943865708</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>148.3698858227004</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1714467.857012078</v>
+        <v>1713771.195806987</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114753</v>
+        <v>612367.9462114752</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>273.437111926166</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>240.1731067268615</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>98.25552770739459</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>4.151527210158674</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>309.8536591698116</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>335.8891107890323</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1056,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1068,7 +1068,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1104,19 +1104,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>23.68504153343219</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>207.085981278626</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1141,19 +1141,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>402.8475300565132</v>
       </c>
       <c r="G8" t="n">
-        <v>244.3987381209107</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>117.8204698842985</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>2.317367624349872</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>128.2005997691016</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>99.57650149812427</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1618,7 +1618,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>102.4329974016892</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>92.05871292885847</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396352</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>97.60112162899995</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>203.9424600568912</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>87.61148459229719</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>36.97592097252158</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2490,7 +2490,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2532,19 +2532,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>265.3917101409437</v>
       </c>
       <c r="X25" t="n">
-        <v>74.07475062513896</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>50.75755770605702</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>190.8407922097237</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>133.9073134702962</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3009,13 +3009,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>173.3256325613755</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>123.0673923170415</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>218.9989885011891</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>186.1591330817291</v>
       </c>
       <c r="V37" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3568,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3663,22 +3663,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>25.13775189891313</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>246.4487845693934</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>127.0157419032329</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712396</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.8472237025188</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3963,7 +3963,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>100.7973101322335</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1230.082836572064</v>
+        <v>1669.020111868996</v>
       </c>
       <c r="C2" t="n">
-        <v>803.1821065853638</v>
+        <v>1646.1597859227</v>
       </c>
       <c r="D2" t="n">
-        <v>783.9298898107681</v>
+        <v>1626.907569148105</v>
       </c>
       <c r="E2" t="n">
-        <v>761.9933539990298</v>
+        <v>1200.930629295962</v>
       </c>
       <c r="F2" t="n">
-        <v>336.86917218843</v>
+        <v>775.8064474853627</v>
       </c>
       <c r="G2" t="n">
-        <v>336.5705138182826</v>
+        <v>371.4673850748114</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231743</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
         <v>38.70213529231743</v>
@@ -4333,22 +4333,22 @@
         <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>401.305594109213</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516411</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="M2" t="n">
-        <v>882.5260259873578</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="N2" t="n">
-        <v>1361.464950229786</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="O2" t="n">
-        <v>1361.464950229786</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229786</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="Q2" t="n">
         <v>1817.550429733969</v>
@@ -4369,13 +4369,13 @@
         <v>1935.106764615871</v>
       </c>
       <c r="W2" t="n">
-        <v>1658.907661660148</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="X2" t="n">
-        <v>1651.228066868299</v>
+        <v>1927.427169824023</v>
       </c>
       <c r="Y2" t="n">
-        <v>1649.931200863594</v>
+        <v>1684.828072120122</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668169</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843216</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996066</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725438</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>273.848999055448</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>179.795227273052</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353616</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>133.8657769972735</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="J3" t="n">
-        <v>133.8657769972735</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>612.8047012397017</v>
+        <v>796.7851917762486</v>
       </c>
       <c r="L3" t="n">
-        <v>1091.74362548213</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="M3" t="n">
-        <v>1091.74362548213</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="N3" t="n">
-        <v>1091.74362548213</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="O3" t="n">
-        <v>1570.682549724558</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="P3" t="n">
-        <v>1935.106764615871</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1935.106764615871</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177126</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474804</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394441</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533707</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366924</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335872</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868796</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.825353562517</v>
+        <v>476.1309120457949</v>
       </c>
       <c r="C4" t="n">
-        <v>686.825353562517</v>
+        <v>304.1583489247109</v>
       </c>
       <c r="D4" t="n">
-        <v>686.825353562517</v>
+        <v>304.1583489247109</v>
       </c>
       <c r="E4" t="n">
-        <v>520.6171477153705</v>
+        <v>137.9501430775645</v>
       </c>
       <c r="F4" t="n">
-        <v>348.7553734899309</v>
+        <v>137.9501430775645</v>
       </c>
       <c r="G4" t="n">
-        <v>182.498403784163</v>
+        <v>137.9501430775645</v>
       </c>
       <c r="H4" t="n">
         <v>38.70213529231743</v>
@@ -4494,46 +4494,46 @@
         <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>393.4019879271588</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>784.5877828974096</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1801.515820542783</v>
+        <v>1517.507422453209</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615871</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
         <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303045</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.93310382218</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1717.93310382218</v>
+        <v>1691.767416841772</v>
       </c>
       <c r="U4" t="n">
-        <v>1437.748655322484</v>
+        <v>1691.767416841772</v>
       </c>
       <c r="V4" t="n">
-        <v>1156.037187930513</v>
+        <v>1410.0559494498</v>
       </c>
       <c r="W4" t="n">
-        <v>881.1847841030258</v>
+        <v>1135.203545622313</v>
       </c>
       <c r="X4" t="n">
-        <v>876.9913222745827</v>
+        <v>892.6396490681185</v>
       </c>
       <c r="Y4" t="n">
-        <v>876.9913222745827</v>
+        <v>666.2968807578605</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.919330369398</v>
+        <v>862.5982923554784</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.018600382698</v>
+        <v>435.6975623687785</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.766383608102</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>767.7894437559598</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1664.703751417078</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>1664.703751417078</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X5" t="n">
-        <v>1657.024156625229</v>
+        <v>879.7031186113101</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.727290620524</v>
+        <v>878.4062526066044</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>119.1699405917395</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>669.8354755761777</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M6" t="n">
-        <v>669.8354755761777</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N6" t="n">
-        <v>669.8354755761777</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>526.3644736136791</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>526.3644736136791</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>526.3644736136791</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>360.1562677665327</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
         <v>188.2944935410931</v>
@@ -4731,46 +4731,46 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1460.289511017685</v>
+        <v>1896.161171757578</v>
       </c>
       <c r="W7" t="n">
-        <v>1185.437107190198</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>942.8732106360028</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>716.5304423257448</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1113.304147418315</v>
+        <v>1621.711845585579</v>
       </c>
       <c r="C8" t="n">
-        <v>686.4034174316155</v>
+        <v>1194.811115598879</v>
       </c>
       <c r="D8" t="n">
-        <v>667.1512006570198</v>
+        <v>1175.558898824283</v>
       </c>
       <c r="E8" t="n">
-        <v>645.2146648452814</v>
+        <v>749.581958972141</v>
       </c>
       <c r="F8" t="n">
-        <v>624.1308870750856</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4810,46 +4810,46 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1556.689382596036</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="X8" t="n">
-        <v>1534.449377714551</v>
+        <v>1638.81667184141</v>
       </c>
       <c r="Y8" t="n">
-        <v>1129.112107669441</v>
+        <v>1637.519805836705</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>416.2236218818665</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>416.2236218818665</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="K9" t="n">
-        <v>416.2236218818665</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L9" t="n">
-        <v>572.914647509062</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M9" t="n">
-        <v>1123.5801824935</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="N9" t="n">
-        <v>1674.245717477938</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O9" t="n">
-        <v>2224.911252462377</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.0445307493287</v>
+        <v>961.4223778677166</v>
       </c>
       <c r="C10" t="n">
-        <v>374.0719676282447</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D10" t="n">
-        <v>210.7551947550154</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E10" t="n">
-        <v>210.7551947550154</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F10" t="n">
-        <v>210.7551947550154</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2058.862063508843</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1815.522715734743</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1535.338267235047</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1253.626799843076</v>
+        <v>1895.347415271722</v>
       </c>
       <c r="W10" t="n">
-        <v>978.7743960155893</v>
+        <v>1620.495011444235</v>
       </c>
       <c r="X10" t="n">
-        <v>736.2104994613944</v>
+        <v>1377.93111489004</v>
       </c>
       <c r="Y10" t="n">
-        <v>736.2104994613944</v>
+        <v>1151.588346579782</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
         <v>2113.800768076616</v>
@@ -5041,28 +5041,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>1007.532766690843</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L11" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M11" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N11" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5120,25 +5120,25 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L12" t="n">
-        <v>939.4897558901635</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M12" t="n">
-        <v>939.4897558901635</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N12" t="n">
-        <v>939.4897558901635</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O12" t="n">
-        <v>1828.971033901635</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
         <v>1828.971033901635</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>919.4582979645735</v>
+        <v>985.4544125320147</v>
       </c>
       <c r="C13" t="n">
-        <v>747.4857348434895</v>
+        <v>813.4818494109306</v>
       </c>
       <c r="D13" t="n">
-        <v>584.1689619702602</v>
+        <v>813.4818494109306</v>
       </c>
       <c r="E13" t="n">
-        <v>417.9607561231137</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>246.0989818976742</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5211,40 +5211,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S13" t="n">
-        <v>2135.09480276055</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T13" t="n">
-        <v>2135.09480276055</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U13" t="n">
-        <v>2135.09480276055</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V13" t="n">
-        <v>1853.383335368579</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.530931541092</v>
+        <v>985.4544125320147</v>
       </c>
       <c r="X13" t="n">
-        <v>1335.967034986897</v>
+        <v>985.4544125320147</v>
       </c>
       <c r="Y13" t="n">
-        <v>1109.624266676639</v>
+        <v>985.4544125320147</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
         <v>839.4070255988738</v>
@@ -5284,19 +5284,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q14" t="n">
         <v>4997.579335409525</v>
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>1429.986740661465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>756.1415250913442</v>
+        <v>806.9257087544884</v>
       </c>
       <c r="C16" t="n">
-        <v>584.1689619702602</v>
+        <v>806.9257087544884</v>
       </c>
       <c r="D16" t="n">
-        <v>584.1689619702602</v>
+        <v>643.6089358812591</v>
       </c>
       <c r="E16" t="n">
-        <v>417.9607561231137</v>
+        <v>477.4007300341126</v>
       </c>
       <c r="F16" t="n">
-        <v>246.0989818976742</v>
+        <v>305.538955808673</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299896</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358268</v>
       </c>
       <c r="L16" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302475</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.214133333126</v>
+        <v>1832.396244838399</v>
       </c>
       <c r="V16" t="n">
-        <v>1447.502665941155</v>
+        <v>1550.684777446428</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.650262113668</v>
+        <v>1275.832373618941</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.650262113668</v>
+        <v>1033.268477064746</v>
       </c>
       <c r="Y16" t="n">
-        <v>946.3074938034099</v>
+        <v>806.9257087544884</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5518,25 +5518,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5554,13 +5554,13 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M18" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N18" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675582</v>
+        <v>919.5070618231949</v>
       </c>
       <c r="C19" t="n">
-        <v>516.5477476675582</v>
+        <v>747.5344987021109</v>
       </c>
       <c r="D19" t="n">
-        <v>516.5477476675582</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E19" t="n">
-        <v>516.5477476675582</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F19" t="n">
-        <v>344.6859734421186</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G19" t="n">
-        <v>344.6859734421186</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>200.8897049502729</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5709,16 +5709,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1336.015798845518</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1336.015798845518</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675582</v>
+        <v>1109.673030535261</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,40 +5740,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2129.375202991803</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5831,28 +5831,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>381.4468456473314</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>381.4468456473314</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L21" t="n">
-        <v>381.4468456473314</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M21" t="n">
-        <v>381.4468456473314</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N21" t="n">
-        <v>381.4468456473314</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O21" t="n">
-        <v>730.647150085061</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.3707945649905</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="C22" t="n">
-        <v>706.3982314439065</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="D22" t="n">
-        <v>706.3982314439065</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E22" t="n">
-        <v>540.1900255967601</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F22" t="n">
-        <v>368.3282513713204</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
         <v>202.0712816655526</v>
@@ -5937,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1903.841330648901</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.12986325693</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1347.277459429443</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1104.713562875248</v>
+        <v>948.1049974082518</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3707945649905</v>
+        <v>721.7622290979939</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>855.9100933510683</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>683.9375302299843</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831969</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W25" t="n">
-        <v>4092.726745831969</v>
+        <v>1272.418830373392</v>
       </c>
       <c r="X25" t="n">
-        <v>4017.903765402536</v>
+        <v>1272.418830373392</v>
       </c>
       <c r="Y25" t="n">
-        <v>4017.903765402536</v>
+        <v>1046.076062063134</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>3306.448039710919</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M27" t="n">
-        <v>4362.434577686964</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N27" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O27" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P27" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1064.78153311813</v>
+        <v>847.303066961835</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E28" t="n">
         <v>683.9862940886057</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1872.773603045746</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1872.773603045746</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1591.062135653775</v>
       </c>
       <c r="W28" t="n">
-        <v>1307.345429672325</v>
+        <v>1316.209731826288</v>
       </c>
       <c r="X28" t="n">
-        <v>1064.78153311813</v>
+        <v>1073.645835272093</v>
       </c>
       <c r="Y28" t="n">
-        <v>1064.78153311813</v>
+        <v>847.303066961835</v>
       </c>
     </row>
     <row r="29">
@@ -6469,22 +6469,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>985.454412532011</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="C31" t="n">
-        <v>850.1944999357522</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
         <v>202.0712816655526</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1413.980500537654</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1139.128096710167</v>
       </c>
       <c r="X31" t="n">
-        <v>985.454412532011</v>
+        <v>896.5642001559722</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.454412532011</v>
+        <v>896.5642001559722</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,16 +6776,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M33" t="n">
         <v>821.6753975134684</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427964</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C34" t="n">
-        <v>3034.491211138023</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D34" t="n">
-        <v>3034.491211138023</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E34" t="n">
-        <v>3034.491211138023</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>3034.491211138023</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004482</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450287</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140029</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6946,16 +6946,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
         <v>4997.579335409525</v>
@@ -7025,10 +7025,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D37" t="n">
         <v>850.1944999357522</v>
@@ -7128,19 +7128,19 @@
         <v>2235.67712750613</v>
       </c>
       <c r="U37" t="n">
-        <v>2235.67712750613</v>
+        <v>2047.637599140747</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1765.926131748776</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1491.073727921289</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>1248.509831367094</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>1022.167063056836</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7177,22 +7177,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7210,10 +7210,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>105.4776804749704</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.68756743822</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="C40" t="n">
-        <v>869.7150043171358</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D40" t="n">
-        <v>706.3982314439065</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E40" t="n">
-        <v>540.1900255967601</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F40" t="n">
-        <v>368.3282513713204</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
         <v>202.0712816655526</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>2257.324072234196</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1975.612604842225</v>
+        <v>1340.118730832585</v>
       </c>
       <c r="W40" t="n">
-        <v>1700.760201014738</v>
+        <v>1340.118730832585</v>
       </c>
       <c r="X40" t="n">
-        <v>1458.196304460543</v>
+        <v>1097.554834278391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1231.853536150285</v>
+        <v>871.2120659681327</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>4573.117879057176</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P41" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>5029.203358561359</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
@@ -7447,16 +7447,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M42" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N42" t="n">
-        <v>1191.617659878699</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>812.2850232837875</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="C43" t="n">
-        <v>812.2850232837875</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D43" t="n">
-        <v>812.2850232837875</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886028</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631632</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573953</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655497</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7596,25 +7596,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T43" t="n">
-        <v>2065.542080025265</v>
+        <v>2003.508214675303</v>
       </c>
       <c r="U43" t="n">
-        <v>1785.357631525569</v>
+        <v>1723.323766175607</v>
       </c>
       <c r="V43" t="n">
-        <v>1503.646164133598</v>
+        <v>1441.612298783636</v>
       </c>
       <c r="W43" t="n">
-        <v>1228.793760306111</v>
+        <v>1166.759894956149</v>
       </c>
       <c r="X43" t="n">
-        <v>1228.793760306111</v>
+        <v>924.1959984019542</v>
       </c>
       <c r="Y43" t="n">
-        <v>1002.450991995853</v>
+        <v>697.8532300916962</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
         <v>5115.135670291427</v>
@@ -7684,16 +7684,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>109.7493563677404</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N45" t="n">
-        <v>109.7493563677404</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O45" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>446.1370507523521</v>
+        <v>1022.167063056836</v>
       </c>
       <c r="C46" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D46" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E46" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F46" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>1661.773555548329</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V46" t="n">
-        <v>1380.062088156358</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W46" t="n">
-        <v>1105.20968432887</v>
+        <v>1438.67580007916</v>
       </c>
       <c r="X46" t="n">
-        <v>862.6457877746757</v>
+        <v>1438.67580007916</v>
       </c>
       <c r="Y46" t="n">
-        <v>636.3030194644177</v>
+        <v>1212.333031768902</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487773</v>
       </c>
       <c r="L2" t="n">
         <v>522.0887335865908</v>
       </c>
       <c r="M2" t="n">
-        <v>39.73581606682243</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884139</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>500.5723185172007</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8057,7 +8057,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>506.1759249873012</v>
@@ -8072,16 +8072,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761901</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>389.8761087718121</v>
+        <v>47.52928858530125</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>93.31363181978827</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>157.3211482065608</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
@@ -8224,22 +8224,22 @@
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>571.1449214366446</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>84.86874406016992</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>90.30334755109108</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.190801607238</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8458,16 +8458,16 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>86.02369229001789</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8476,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>171.3630160154378</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>180.788849974023</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
@@ -8549,7 +8549,7 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
@@ -8707,13 +8707,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>124.3756766890881</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L12" t="n">
-        <v>860.6367023934448</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8932,10 +8932,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,10 +8944,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>618.9086683272931</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
@@ -9251,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>355.138624957478</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>172.957937812503</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -9494,16 +9494,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>375.8994699623531</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>693.0751584803598</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,19 +9883,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9974,10 +9974,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>217.3512730059682</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10199,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>1097.502645866297</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,7 +10211,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
@@ -10594,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10673,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10825,16 +10825,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,7 +10843,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>26.3038179559056</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11074,16 +11074,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>493.0472488628404</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>121.8329647736533</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11384,22 +11384,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>567.4935903612297</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.34552401957333</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>68.85719550793222</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>62.16140260702099</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>185.3238910858403</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.169760948126836</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>68.16141973232089</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>189.7711194224016</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>203.1623366161313</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>6.7121696482684</v>
       </c>
       <c r="X25" t="n">
-        <v>166.063506963514</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>119.4952797838161</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>50.06516208663527</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>36.34552401957694</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>105.5687201566759</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.18544517283162</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>59.89536421686228</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>91.22347093296969</v>
       </c>
       <c r="V37" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>252.2448521157856</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>32.445568148658</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>37.53038188544213</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>11.05873059384015</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>171.3065696569786</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>619825.5633684793</v>
+        <v>619825.5633684794</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619825.5633684791</v>
+        <v>619825.5633684793</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619825.5633684791</v>
+        <v>619825.5633684794</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619825.5633684791</v>
+        <v>619825.5633684793</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>619825.5633684791</v>
+        <v>619825.5633684793</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>619825.5633684791</v>
+        <v>619825.5633684793</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619825.5633684793</v>
+        <v>619825.5633684791</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619825.5633684794</v>
+        <v>619825.5633684793</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>465954.1344089303</v>
+        <v>465954.1344089302</v>
       </c>
       <c r="C2" t="n">
-        <v>465954.1344089304</v>
+        <v>465954.1344089305</v>
       </c>
       <c r="D2" t="n">
         <v>465954.1344089304</v>
       </c>
       <c r="E2" t="n">
-        <v>449624.3225099578</v>
+        <v>449624.322509958</v>
       </c>
       <c r="F2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="G2" t="n">
-        <v>449624.3225099581</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="H2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="I2" t="n">
         <v>449624.3225099579</v>
@@ -26340,22 +26340,22 @@
         <v>449624.3225099579</v>
       </c>
       <c r="K2" t="n">
-        <v>449624.322509958</v>
+        <v>449624.3225099579</v>
       </c>
       <c r="L2" t="n">
+        <v>449624.3225099578</v>
+      </c>
+      <c r="M2" t="n">
         <v>449624.3225099579</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449624.322509958</v>
       </c>
       <c r="N2" t="n">
         <v>449624.3225099579</v>
       </c>
       <c r="O2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
       <c r="P2" t="n">
-        <v>449624.3225099579</v>
+        <v>449624.3225099578</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>203366.9722795535</v>
       </c>
       <c r="C4" t="n">
-        <v>191243.7287526202</v>
+        <v>191243.7287526203</v>
       </c>
       <c r="D4" t="n">
         <v>191243.7287526203</v>
@@ -26444,16 +26444,16 @@
         <v>86696.74064784776</v>
       </c>
       <c r="K4" t="n">
-        <v>86696.74064784778</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="L4" t="n">
         <v>86696.74064784778</v>
       </c>
       <c r="M4" t="n">
-        <v>86696.74064784779</v>
+        <v>86696.74064784776</v>
       </c>
       <c r="N4" t="n">
-        <v>86696.74064784776</v>
+        <v>86696.74064784771</v>
       </c>
       <c r="O4" t="n">
         <v>86696.74064784776</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37421.24323762432</v>
+        <v>37421.24323762421</v>
       </c>
       <c r="C6" t="n">
         <v>183857.3209452698</v>
@@ -26530,40 +26530,40 @@
         <v>207264.154618882</v>
       </c>
       <c r="E6" t="n">
-        <v>69438.16311703973</v>
+        <v>69387.13245485567</v>
       </c>
       <c r="F6" t="n">
-        <v>285177.5196736804</v>
+        <v>285126.4890114962</v>
       </c>
       <c r="G6" t="n">
-        <v>285177.5196736806</v>
+        <v>285126.4890114961</v>
       </c>
       <c r="H6" t="n">
-        <v>285177.5196736804</v>
+        <v>285126.489011496</v>
       </c>
       <c r="I6" t="n">
-        <v>285177.5196736804</v>
+        <v>285126.4890114962</v>
       </c>
       <c r="J6" t="n">
-        <v>158600.2510933917</v>
+        <v>158549.2204312073</v>
       </c>
       <c r="K6" t="n">
-        <v>266530.9193166607</v>
+        <v>266479.8886544763</v>
       </c>
       <c r="L6" t="n">
-        <v>285177.5196736805</v>
+        <v>285126.4890114961</v>
       </c>
       <c r="M6" t="n">
-        <v>105113.6482185128</v>
+        <v>105062.6175563284</v>
       </c>
       <c r="N6" t="n">
-        <v>285177.5196736804</v>
+        <v>285126.4890114962</v>
       </c>
       <c r="O6" t="n">
-        <v>285177.5196736805</v>
+        <v>285126.4890114961</v>
       </c>
       <c r="P6" t="n">
-        <v>285177.5196736805</v>
+        <v>285126.4890114961</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>118.9903242764906</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>161.1107906177971</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>44.10277809953256</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9867303784943</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>109.2060354370381</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>18.02540993598075</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>255.2093111846192</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>65.01789851058615</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18.02540993598058</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>155.8969336655352</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>50.61322712175794</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>276.5769850937015</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L2" t="n">
         <v>483.7766911539679</v>
       </c>
       <c r="M2" t="n">
-        <v>2.304553167390613</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>462.9969567069694</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34777,7 +34777,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>483.7766911539679</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>368.1052675669834</v>
+        <v>25.75844738047259</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>71.39487192408706</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>134.9403475485744</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
@@ -34944,22 +34944,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>533.7539620806206</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>67.90411371775774</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115368</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35178,16 +35178,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35196,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>150.7519016821044</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>158.2737632597934</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
@@ -35269,7 +35269,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
@@ -35427,13 +35427,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>86.80031487885682</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L12" t="n">
-        <v>838.1216156792152</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>82.84778796434657</v>
@@ -35579,7 +35579,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404439</v>
       </c>
       <c r="O13" t="n">
         <v>359.0183117977405</v>
@@ -35652,10 +35652,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,10 +35664,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127374</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
@@ -35886,19 +35886,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>581.517708971269</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>149.7860480902807</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>352.7275802401309</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>671.3043172755312</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,19 +36603,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,10 +36837,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>181.2265984013702</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>1076.159617652755</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
@@ -37314,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37393,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,7 +37563,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>3.207037443577619</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37794,16 +37794,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>86.80031487885682</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>544.3217006390075</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
